--- a/topic3/empty_book.xlsx
+++ b/topic3/empty_book.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="32">
   <si>
     <t xml:space="preserve">names</t>
   </si>
@@ -30,16 +30,13 @@
     <t xml:space="preserve">marks</t>
   </si>
   <si>
-    <t xml:space="preserve">Anton Tkachev</t>
+    <t xml:space="preserve">Anton Tkachou</t>
   </si>
   <si>
-    <t xml:space="preserve">Egor aDASD</t>
+    <t xml:space="preserve">Egor Gorynovich</t>
   </si>
   <si>
-    <t xml:space="preserve">Vlad dasda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danill dasda</t>
+    <t xml:space="preserve">Nikita Soveliev</t>
   </si>
   <si>
     <t xml:space="preserve">AA</t>
@@ -221,10 +218,10 @@
   <dimension ref="A1:WB39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K16:K17 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -70523,10 +70520,10 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K16:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.07"/>
   </cols>
@@ -70603,26 +70600,6 @@
       </c>
       <c r="H4" s="0" t="n">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -70647,839 +70624,839 @@
   <dimension ref="AA10:BA19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA10" activeCellId="0" sqref="AA10"/>
+      <selection pane="topLeft" activeCell="AA10" activeCellId="1" sqref="K16:K17 AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AB10" s="0" t="s">
+      <c r="AC10" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AC10" s="0" t="s">
+      <c r="AD10" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="AD10" s="0" t="s">
+      <c r="AE10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="AE10" s="0" t="s">
+      <c r="AF10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AF10" s="0" t="s">
+      <c r="AG10" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AG10" s="0" t="s">
+      <c r="AH10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="AH10" s="0" t="s">
+      <c r="AI10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AI10" s="0" t="s">
+      <c r="AJ10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="AJ10" s="0" t="s">
+      <c r="AK10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AK10" s="0" t="s">
+      <c r="AL10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="AL10" s="0" t="s">
+      <c r="AM10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AM10" s="0" t="s">
+      <c r="AN10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AN10" s="0" t="s">
+      <c r="AO10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="AO10" s="0" t="s">
+      <c r="AP10" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="AP10" s="0" t="s">
+      <c r="AQ10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AQ10" s="0" t="s">
+      <c r="AR10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AR10" s="0" t="s">
+      <c r="AS10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AS10" s="0" t="s">
+      <c r="AT10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="AT10" s="0" t="s">
+      <c r="AU10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AU10" s="0" t="s">
+      <c r="AV10" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AV10" s="0" t="s">
+      <c r="AW10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AW10" s="0" t="s">
+      <c r="AX10" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AX10" s="0" t="s">
+      <c r="AY10" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AY10" s="0" t="s">
+      <c r="AZ10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AZ10" s="0" t="s">
+      <c r="BA10" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="BA10" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AB11" s="0" t="s">
+      <c r="AC11" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AC11" s="0" t="s">
+      <c r="AD11" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="AD11" s="0" t="s">
+      <c r="AE11" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="AE11" s="0" t="s">
+      <c r="AF11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AF11" s="0" t="s">
+      <c r="AG11" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AG11" s="0" t="s">
+      <c r="AH11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="AH11" s="0" t="s">
+      <c r="AI11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AI11" s="0" t="s">
+      <c r="AJ11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="AJ11" s="0" t="s">
+      <c r="AK11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AK11" s="0" t="s">
+      <c r="AL11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="AL11" s="0" t="s">
+      <c r="AM11" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AM11" s="0" t="s">
+      <c r="AN11" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AN11" s="0" t="s">
+      <c r="AO11" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="AO11" s="0" t="s">
+      <c r="AP11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="AP11" s="0" t="s">
+      <c r="AQ11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AQ11" s="0" t="s">
+      <c r="AR11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AR11" s="0" t="s">
+      <c r="AS11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AS11" s="0" t="s">
+      <c r="AT11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="AT11" s="0" t="s">
+      <c r="AU11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AU11" s="0" t="s">
+      <c r="AV11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AV11" s="0" t="s">
+      <c r="AW11" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AW11" s="0" t="s">
+      <c r="AX11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AX11" s="0" t="s">
+      <c r="AY11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AY11" s="0" t="s">
+      <c r="AZ11" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AZ11" s="0" t="s">
+      <c r="BA11" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="BA11" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AB12" s="0" t="s">
+      <c r="AC12" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="0" t="s">
+      <c r="AD12" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="AD12" s="0" t="s">
+      <c r="AE12" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="0" t="s">
+      <c r="AF12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AF12" s="0" t="s">
+      <c r="AG12" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AG12" s="0" t="s">
+      <c r="AH12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="AH12" s="0" t="s">
+      <c r="AI12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AI12" s="0" t="s">
+      <c r="AJ12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="AJ12" s="0" t="s">
+      <c r="AK12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AK12" s="0" t="s">
+      <c r="AL12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="AL12" s="0" t="s">
+      <c r="AM12" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AM12" s="0" t="s">
+      <c r="AN12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AN12" s="0" t="s">
+      <c r="AO12" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="AO12" s="0" t="s">
+      <c r="AP12" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="AP12" s="0" t="s">
+      <c r="AQ12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AQ12" s="0" t="s">
+      <c r="AR12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AR12" s="0" t="s">
+      <c r="AS12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AS12" s="0" t="s">
+      <c r="AT12" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="AT12" s="0" t="s">
+      <c r="AU12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AU12" s="0" t="s">
+      <c r="AV12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AV12" s="0" t="s">
+      <c r="AW12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AW12" s="0" t="s">
+      <c r="AX12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AX12" s="0" t="s">
+      <c r="AY12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AY12" s="0" t="s">
+      <c r="AZ12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AZ12" s="0" t="s">
+      <c r="BA12" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="BA12" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AB13" s="0" t="s">
+      <c r="AC13" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AC13" s="0" t="s">
+      <c r="AD13" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="AD13" s="0" t="s">
+      <c r="AE13" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="0" t="s">
+      <c r="AF13" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AF13" s="0" t="s">
+      <c r="AG13" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AG13" s="0" t="s">
+      <c r="AH13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="AH13" s="0" t="s">
+      <c r="AI13" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AI13" s="0" t="s">
+      <c r="AJ13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="AJ13" s="0" t="s">
+      <c r="AK13" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AK13" s="0" t="s">
+      <c r="AL13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="AL13" s="0" t="s">
+      <c r="AM13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AM13" s="0" t="s">
+      <c r="AN13" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AN13" s="0" t="s">
+      <c r="AO13" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="AO13" s="0" t="s">
+      <c r="AP13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="AP13" s="0" t="s">
+      <c r="AQ13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AQ13" s="0" t="s">
+      <c r="AR13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AR13" s="0" t="s">
+      <c r="AS13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AS13" s="0" t="s">
+      <c r="AT13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="AT13" s="0" t="s">
+      <c r="AU13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AU13" s="0" t="s">
+      <c r="AV13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AV13" s="0" t="s">
+      <c r="AW13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AW13" s="0" t="s">
+      <c r="AX13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AX13" s="0" t="s">
+      <c r="AY13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AY13" s="0" t="s">
+      <c r="AZ13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AZ13" s="0" t="s">
+      <c r="BA13" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="BA13" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AB14" s="0" t="s">
+      <c r="AC14" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AC14" s="0" t="s">
+      <c r="AD14" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="0" t="s">
+      <c r="AE14" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="AE14" s="0" t="s">
+      <c r="AF14" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AF14" s="0" t="s">
+      <c r="AG14" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AG14" s="0" t="s">
+      <c r="AH14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="AH14" s="0" t="s">
+      <c r="AI14" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AI14" s="0" t="s">
+      <c r="AJ14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="AJ14" s="0" t="s">
+      <c r="AK14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AK14" s="0" t="s">
+      <c r="AL14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="AL14" s="0" t="s">
+      <c r="AM14" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AM14" s="0" t="s">
+      <c r="AN14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AN14" s="0" t="s">
+      <c r="AO14" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="AO14" s="0" t="s">
+      <c r="AP14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="AP14" s="0" t="s">
+      <c r="AQ14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AQ14" s="0" t="s">
+      <c r="AR14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AR14" s="0" t="s">
+      <c r="AS14" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AS14" s="0" t="s">
+      <c r="AT14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="AT14" s="0" t="s">
+      <c r="AU14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AU14" s="0" t="s">
+      <c r="AV14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AV14" s="0" t="s">
+      <c r="AW14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AW14" s="0" t="s">
+      <c r="AX14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AX14" s="0" t="s">
+      <c r="AY14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AY14" s="0" t="s">
+      <c r="AZ14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AZ14" s="0" t="s">
+      <c r="BA14" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="BA14" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AB15" s="0" t="s">
+      <c r="AC15" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AC15" s="0" t="s">
+      <c r="AD15" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="AD15" s="0" t="s">
+      <c r="AE15" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="AE15" s="0" t="s">
+      <c r="AF15" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AF15" s="0" t="s">
+      <c r="AG15" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AG15" s="0" t="s">
+      <c r="AH15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="AH15" s="0" t="s">
+      <c r="AI15" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AI15" s="0" t="s">
+      <c r="AJ15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="AJ15" s="0" t="s">
+      <c r="AK15" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AK15" s="0" t="s">
+      <c r="AL15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="AL15" s="0" t="s">
+      <c r="AM15" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AM15" s="0" t="s">
+      <c r="AN15" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AN15" s="0" t="s">
+      <c r="AO15" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="AO15" s="0" t="s">
+      <c r="AP15" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="AP15" s="0" t="s">
+      <c r="AQ15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AQ15" s="0" t="s">
+      <c r="AR15" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AR15" s="0" t="s">
+      <c r="AS15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AS15" s="0" t="s">
+      <c r="AT15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="AT15" s="0" t="s">
+      <c r="AU15" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AU15" s="0" t="s">
+      <c r="AV15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AV15" s="0" t="s">
+      <c r="AW15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AW15" s="0" t="s">
+      <c r="AX15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AX15" s="0" t="s">
+      <c r="AY15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AY15" s="0" t="s">
+      <c r="AZ15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AZ15" s="0" t="s">
+      <c r="BA15" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="BA15" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AB16" s="0" t="s">
+      <c r="AC16" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AC16" s="0" t="s">
+      <c r="AD16" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="AD16" s="0" t="s">
+      <c r="AE16" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="AE16" s="0" t="s">
+      <c r="AF16" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AF16" s="0" t="s">
+      <c r="AG16" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AG16" s="0" t="s">
+      <c r="AH16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="AH16" s="0" t="s">
+      <c r="AI16" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AI16" s="0" t="s">
+      <c r="AJ16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="AJ16" s="0" t="s">
+      <c r="AK16" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AK16" s="0" t="s">
+      <c r="AL16" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="AL16" s="0" t="s">
+      <c r="AM16" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AM16" s="0" t="s">
+      <c r="AN16" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AN16" s="0" t="s">
+      <c r="AO16" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="AO16" s="0" t="s">
+      <c r="AP16" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="AP16" s="0" t="s">
+      <c r="AQ16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AQ16" s="0" t="s">
+      <c r="AR16" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AR16" s="0" t="s">
+      <c r="AS16" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AS16" s="0" t="s">
+      <c r="AT16" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="AT16" s="0" t="s">
+      <c r="AU16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AU16" s="0" t="s">
+      <c r="AV16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AV16" s="0" t="s">
+      <c r="AW16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AW16" s="0" t="s">
+      <c r="AX16" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AX16" s="0" t="s">
+      <c r="AY16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AY16" s="0" t="s">
+      <c r="AZ16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AZ16" s="0" t="s">
+      <c r="BA16" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="BA16" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AB17" s="0" t="s">
+      <c r="AC17" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AC17" s="0" t="s">
+      <c r="AD17" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="AD17" s="0" t="s">
+      <c r="AE17" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="AE17" s="0" t="s">
+      <c r="AF17" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AF17" s="0" t="s">
+      <c r="AG17" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AG17" s="0" t="s">
+      <c r="AH17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="AH17" s="0" t="s">
+      <c r="AI17" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AI17" s="0" t="s">
+      <c r="AJ17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="AJ17" s="0" t="s">
+      <c r="AK17" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AK17" s="0" t="s">
+      <c r="AL17" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="AL17" s="0" t="s">
+      <c r="AM17" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AM17" s="0" t="s">
+      <c r="AN17" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AN17" s="0" t="s">
+      <c r="AO17" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="AO17" s="0" t="s">
+      <c r="AP17" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="AP17" s="0" t="s">
+      <c r="AQ17" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AQ17" s="0" t="s">
+      <c r="AR17" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AR17" s="0" t="s">
+      <c r="AS17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AS17" s="0" t="s">
+      <c r="AT17" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="AT17" s="0" t="s">
+      <c r="AU17" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AU17" s="0" t="s">
+      <c r="AV17" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AV17" s="0" t="s">
+      <c r="AW17" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AW17" s="0" t="s">
+      <c r="AX17" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AX17" s="0" t="s">
+      <c r="AY17" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AY17" s="0" t="s">
+      <c r="AZ17" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AZ17" s="0" t="s">
+      <c r="BA17" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="BA17" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AB18" s="0" t="s">
+      <c r="AC18" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AC18" s="0" t="s">
+      <c r="AD18" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="AD18" s="0" t="s">
+      <c r="AE18" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="AE18" s="0" t="s">
+      <c r="AF18" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AF18" s="0" t="s">
+      <c r="AG18" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AG18" s="0" t="s">
+      <c r="AH18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="AH18" s="0" t="s">
+      <c r="AI18" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AI18" s="0" t="s">
+      <c r="AJ18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="AJ18" s="0" t="s">
+      <c r="AK18" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AK18" s="0" t="s">
+      <c r="AL18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="AL18" s="0" t="s">
+      <c r="AM18" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AM18" s="0" t="s">
+      <c r="AN18" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AN18" s="0" t="s">
+      <c r="AO18" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="AO18" s="0" t="s">
+      <c r="AP18" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="AP18" s="0" t="s">
+      <c r="AQ18" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AQ18" s="0" t="s">
+      <c r="AR18" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AR18" s="0" t="s">
+      <c r="AS18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AS18" s="0" t="s">
+      <c r="AT18" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="AT18" s="0" t="s">
+      <c r="AU18" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AU18" s="0" t="s">
+      <c r="AV18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AV18" s="0" t="s">
+      <c r="AW18" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AW18" s="0" t="s">
+      <c r="AX18" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AX18" s="0" t="s">
+      <c r="AY18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AY18" s="0" t="s">
+      <c r="AZ18" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AZ18" s="0" t="s">
+      <c r="BA18" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="BA18" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AB19" s="0" t="s">
+      <c r="AC19" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AC19" s="0" t="s">
+      <c r="AD19" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="AD19" s="0" t="s">
+      <c r="AE19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="AE19" s="0" t="s">
+      <c r="AF19" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AF19" s="0" t="s">
+      <c r="AG19" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AG19" s="0" t="s">
+      <c r="AH19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="AH19" s="0" t="s">
+      <c r="AI19" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AI19" s="0" t="s">
+      <c r="AJ19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="AJ19" s="0" t="s">
+      <c r="AK19" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AK19" s="0" t="s">
+      <c r="AL19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="AL19" s="0" t="s">
+      <c r="AM19" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AM19" s="0" t="s">
+      <c r="AN19" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AN19" s="0" t="s">
+      <c r="AO19" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="AO19" s="0" t="s">
+      <c r="AP19" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="AP19" s="0" t="s">
+      <c r="AQ19" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="AQ19" s="0" t="s">
+      <c r="AR19" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="AR19" s="0" t="s">
+      <c r="AS19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AS19" s="0" t="s">
+      <c r="AT19" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="AT19" s="0" t="s">
+      <c r="AU19" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AU19" s="0" t="s">
+      <c r="AV19" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AV19" s="0" t="s">
+      <c r="AW19" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AW19" s="0" t="s">
+      <c r="AX19" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AX19" s="0" t="s">
+      <c r="AY19" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AY19" s="0" t="s">
+      <c r="AZ19" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AZ19" s="0" t="s">
+      <c r="BA19" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="BA19" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/topic3/empty_book.xlsx
+++ b/topic3/empty_book.xlsx
@@ -22,21 +22,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="33">
   <si>
-    <t xml:space="preserve">names</t>
+    <t xml:space="preserve">anton</t>
   </si>
   <si>
-    <t xml:space="preserve">marks</t>
+    <t xml:space="preserve">fiz</t>
   </si>
   <si>
-    <t xml:space="preserve">Anton Tkachou</t>
+    <t xml:space="preserve">math</t>
   </si>
   <si>
-    <t xml:space="preserve">Egor Gorynovich</t>
+    <t xml:space="preserve">col1</t>
   </si>
   <si>
-    <t xml:space="preserve">Nikita Soveliev</t>
+    <t xml:space="preserve">vlad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sergay</t>
   </si>
   <si>
     <t xml:space="preserve">AA</t>
@@ -218,7 +221,7 @@
   <dimension ref="A1:WB39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K16:K17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -70517,10 +70520,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K16:K17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -70535,75 +70538,64 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="C3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>11</v>
-      </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -70624,839 +70616,839 @@
   <dimension ref="AA10:BA19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA10" activeCellId="1" sqref="K16:K17 AA10"/>
+      <selection pane="topLeft" activeCell="AA10" activeCellId="0" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA11" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL13" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO15" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA16" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL16" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP16" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA17" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE17" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO17" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG18" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI18" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL18" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN18" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO18" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR18" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS18" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA19" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG19" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL19" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM19" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO19" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS19" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
